--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2464286.992457685</v>
+        <v>2461874.079951882</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10689347.14596503</v>
+        <v>10689347.14596504</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673439</v>
+        <v>603248.493767344</v>
       </c>
     </row>
     <row r="9">
@@ -1370,22 +1370,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.2977551524149</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>213.5060897741287</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231188</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958323</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>307.5272957798203</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1528,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572905</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1591,7 +1591,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
         <v>171.6095167335022</v>
@@ -1607,13 +1607,13 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.2977551524149</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020903</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>251.0267230750004</v>
       </c>
       <c r="F14" t="n">
         <v>359.9009091231188</v>
@@ -1622,7 +1622,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T14" t="n">
-        <v>96.11671796362639</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
         <v>204.0200353403094</v>
@@ -1673,7 +1673,7 @@
         <v>322.7559640598764</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1771,19 +1771,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572818</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1828,7 +1828,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
         <v>171.6095167335022</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>314.5096953211453</v>
+        <v>220.0754532340875</v>
       </c>
       <c r="C17" t="n">
         <v>297.0487454286722</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.9636154458405</v>
+        <v>40.96361544584053</v>
       </c>
       <c r="T17" t="n">
         <v>135.6938237972848</v>
@@ -1901,16 +1901,16 @@
         <v>182.7710256165667</v>
       </c>
       <c r="V17" t="n">
-        <v>128.0969001021015</v>
+        <v>259.5281121277996</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>281.0168223750777</v>
       </c>
       <c r="X17" t="n">
         <v>301.5069543361337</v>
       </c>
       <c r="Y17" t="n">
-        <v>318.0137923137183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>111.607833839602</v>
       </c>
       <c r="C19" t="n">
-        <v>99.02267475629252</v>
+        <v>99.02267475629253</v>
       </c>
       <c r="D19" t="n">
-        <v>80.39132667587704</v>
+        <v>80.39132667587705</v>
       </c>
       <c r="E19" t="n">
-        <v>78.20981630423385</v>
+        <v>78.20981630423387</v>
       </c>
       <c r="F19" t="n">
-        <v>77.19690168059593</v>
+        <v>77.19690168059594</v>
       </c>
       <c r="G19" t="n">
-        <v>97.80166191669291</v>
+        <v>97.80166191669292</v>
       </c>
       <c r="H19" t="n">
-        <v>76.53086857198547</v>
+        <v>76.53086857198548</v>
       </c>
       <c r="I19" t="n">
-        <v>28.12827406750278</v>
+        <v>28.12827406750279</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.70800632771201</v>
+        <v>20.70800632771203</v>
       </c>
       <c r="S19" t="n">
         <v>121.5448789891066</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>314.5096953211453</v>
       </c>
       <c r="C20" t="n">
         <v>297.0487454286722</v>
@@ -2087,10 +2087,10 @@
         <v>286.4588952783477</v>
       </c>
       <c r="E20" t="n">
-        <v>313.7062237299265</v>
+        <v>239.9100887285267</v>
       </c>
       <c r="F20" t="n">
-        <v>338.6518993993761</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>342.6975793111181</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.9636154458405</v>
+        <v>40.96361544584053</v>
       </c>
       <c r="T20" t="n">
         <v>135.6938237972848</v>
       </c>
       <c r="U20" t="n">
-        <v>84.83268653693719</v>
+        <v>182.7710256165667</v>
       </c>
       <c r="V20" t="n">
         <v>259.5281121277996</v>
@@ -2239,25 +2239,25 @@
         <v>111.607833839602</v>
       </c>
       <c r="C22" t="n">
-        <v>99.02267475629252</v>
+        <v>99.02267475629253</v>
       </c>
       <c r="D22" t="n">
-        <v>80.39132667587704</v>
+        <v>80.39132667587705</v>
       </c>
       <c r="E22" t="n">
-        <v>78.20981630423385</v>
+        <v>78.20981630423387</v>
       </c>
       <c r="F22" t="n">
-        <v>77.19690168059593</v>
+        <v>77.19690168059594</v>
       </c>
       <c r="G22" t="n">
-        <v>97.80166191669291</v>
+        <v>97.80166191669292</v>
       </c>
       <c r="H22" t="n">
-        <v>76.53086857198547</v>
+        <v>76.53086857198548</v>
       </c>
       <c r="I22" t="n">
-        <v>28.12827406750278</v>
+        <v>28.12827406750279</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.70800632771201</v>
+        <v>20.70800632771203</v>
       </c>
       <c r="S22" t="n">
         <v>121.5448789891066</v>
@@ -2318,7 +2318,7 @@
         <v>314.5096953211453</v>
       </c>
       <c r="C23" t="n">
-        <v>297.0487454286722</v>
+        <v>297.0487454286723</v>
       </c>
       <c r="D23" t="n">
         <v>286.4588952783477</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.9636154458405</v>
+        <v>40.96361544584056</v>
       </c>
       <c r="T23" t="n">
-        <v>135.6938237972848</v>
+        <v>135.6938237972849</v>
       </c>
       <c r="U23" t="n">
-        <v>182.7710256165666</v>
+        <v>182.7710256165667</v>
       </c>
       <c r="V23" t="n">
-        <v>259.5281121277996</v>
+        <v>259.5281121277997</v>
       </c>
       <c r="W23" t="n">
         <v>281.0168223750777</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247731</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>111.607833839602</v>
       </c>
       <c r="C25" t="n">
-        <v>99.02267475629252</v>
+        <v>99.02267475629256</v>
       </c>
       <c r="D25" t="n">
-        <v>80.39132667587704</v>
+        <v>80.39132667587708</v>
       </c>
       <c r="E25" t="n">
-        <v>78.20981630423385</v>
+        <v>78.2098163042339</v>
       </c>
       <c r="F25" t="n">
-        <v>77.19690168059593</v>
+        <v>77.19690168059597</v>
       </c>
       <c r="G25" t="n">
-        <v>97.80166191669291</v>
+        <v>97.80166191669295</v>
       </c>
       <c r="H25" t="n">
-        <v>76.53086857198547</v>
+        <v>76.53086857198551</v>
       </c>
       <c r="I25" t="n">
-        <v>28.12827406750278</v>
+        <v>28.12827406750282</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.70800632771201</v>
+        <v>20.70800632771206</v>
       </c>
       <c r="S25" t="n">
         <v>121.5448789891066</v>
@@ -2530,7 +2530,7 @@
         <v>151.3248029338339</v>
       </c>
       <c r="U25" t="n">
-        <v>217.9876918632775</v>
+        <v>217.9876918632776</v>
       </c>
       <c r="V25" t="n">
         <v>183.9134969814927</v>
@@ -2539,7 +2539,7 @@
         <v>218.2988519942557</v>
       </c>
       <c r="X25" t="n">
-        <v>157.4855090467018</v>
+        <v>157.4855090467019</v>
       </c>
       <c r="Y25" t="n">
         <v>150.3605070097595</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2612,7 +2612,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2621,7 +2621,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824775</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572737</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2795,19 +2795,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687292</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383233</v>
+        <v>133.1067657762828</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H37" t="n">
-        <v>90.60953276887641</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
         <v>153.3104517307971</v>
@@ -3566,7 +3566,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.1472599538324</v>
+        <v>124.3541982182258</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010746</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846425</v>
       </c>
       <c r="F40" t="n">
-        <v>100.0281334355441</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>68.3410880309233</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621586</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.084305103337</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609323</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>120.8999331239899</v>
@@ -3752,10 +3752,10 @@
         <v>334.9174524084564</v>
       </c>
       <c r="G41" t="n">
-        <v>338.9631323201984</v>
+        <v>201.446526846367</v>
       </c>
       <c r="H41" t="n">
-        <v>222.6491710540654</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.22916845492077</v>
+        <v>37.22916845492074</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>131.9593768063651</v>
       </c>
       <c r="U41" t="n">
         <v>179.0365786256469</v>
       </c>
       <c r="V41" t="n">
-        <v>27.58726541534639</v>
+        <v>255.7936651368798</v>
       </c>
       <c r="W41" t="n">
         <v>277.2823753841579</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>107.8733868486822</v>
       </c>
       <c r="C43" t="n">
-        <v>95.28822776537277</v>
+        <v>95.28822776537275</v>
       </c>
       <c r="D43" t="n">
-        <v>76.65687968495729</v>
+        <v>76.65687968495727</v>
       </c>
       <c r="E43" t="n">
-        <v>74.4753693133141</v>
+        <v>74.47536931331409</v>
       </c>
       <c r="F43" t="n">
-        <v>73.46245468967618</v>
+        <v>73.46245468967616</v>
       </c>
       <c r="G43" t="n">
-        <v>94.06721492577316</v>
+        <v>94.06721492577314</v>
       </c>
       <c r="H43" t="n">
-        <v>72.79642158106572</v>
+        <v>72.7964215810657</v>
       </c>
       <c r="I43" t="n">
-        <v>24.39382707658303</v>
+        <v>24.39382707658302</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3980,13 +3980,13 @@
         <v>293.3142984377525</v>
       </c>
       <c r="D44" t="n">
-        <v>54.51804856589479</v>
+        <v>282.7244482874279</v>
       </c>
       <c r="E44" t="n">
-        <v>309.9717767390067</v>
+        <v>284.7234526195639</v>
       </c>
       <c r="F44" t="n">
-        <v>334.9174524084564</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>338.9631323201984</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.22916845492077</v>
+        <v>37.2291684549208</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>131.9593768063651</v>
       </c>
       <c r="U44" t="n">
         <v>179.0365786256469</v>
       </c>
       <c r="V44" t="n">
-        <v>255.7936651368798</v>
+        <v>255.7936651368799</v>
       </c>
       <c r="W44" t="n">
         <v>277.2823753841579</v>
@@ -4043,7 +4043,7 @@
         <v>297.772507345214</v>
       </c>
       <c r="Y44" t="n">
-        <v>314.2793453227985</v>
+        <v>314.2793453227986</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.8733868486822</v>
+        <v>107.8733868486823</v>
       </c>
       <c r="C46" t="n">
-        <v>95.28822776537277</v>
+        <v>95.2882277653728</v>
       </c>
       <c r="D46" t="n">
-        <v>76.65687968495729</v>
+        <v>76.65687968495732</v>
       </c>
       <c r="E46" t="n">
-        <v>74.4753693133141</v>
+        <v>74.47536931331413</v>
       </c>
       <c r="F46" t="n">
-        <v>73.46245468967618</v>
+        <v>73.46245468967621</v>
       </c>
       <c r="G46" t="n">
-        <v>94.06721492577316</v>
+        <v>94.06721492577319</v>
       </c>
       <c r="H46" t="n">
-        <v>72.79642158106572</v>
+        <v>72.79642158106574</v>
       </c>
       <c r="I46" t="n">
-        <v>24.39382707658303</v>
+        <v>24.39382707658306</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.97355933679226</v>
+        <v>16.97355933679229</v>
       </c>
       <c r="S46" t="n">
-        <v>117.8104319981868</v>
+        <v>117.8104319981869</v>
       </c>
       <c r="T46" t="n">
-        <v>147.5903559429141</v>
+        <v>147.5903559429142</v>
       </c>
       <c r="U46" t="n">
         <v>214.2532448723578</v>
       </c>
       <c r="V46" t="n">
-        <v>180.1790499905729</v>
+        <v>180.179049990573</v>
       </c>
       <c r="W46" t="n">
-        <v>245.9770612388761</v>
+        <v>245.9770612388758</v>
       </c>
       <c r="X46" t="n">
         <v>153.7510620557821</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.6260600188397</v>
+        <v>146.6260600188398</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1584.98077385971</v>
+        <v>1333.423586391121</v>
       </c>
       <c r="C11" t="n">
-        <v>1263.467889867371</v>
+        <v>1333.423586391121</v>
       </c>
       <c r="D11" t="n">
-        <v>1047.805172923807</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>684.2689010822729</v>
       </c>
       <c r="F11" t="n">
-        <v>684.268901082273</v>
+        <v>684.2689010822729</v>
       </c>
       <c r="G11" t="n">
-        <v>316.6460838753429</v>
+        <v>316.6460838753427</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416634</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638544</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V11" t="n">
-        <v>2898.155827638544</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W11" t="n">
-        <v>2592.836805316503</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X11" t="n">
-        <v>2266.820680003497</v>
+        <v>1983.207425607998</v>
       </c>
       <c r="Y11" t="n">
-        <v>1924.130980975758</v>
+        <v>1672.57379350717</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,34 +5136,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052949</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254612</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611991</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268793</v>
+        <v>434.8492327268786</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770423</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998346</v>
+        <v>215.1557144998338</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657649</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315261</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328087</v>
+        <v>408.632702332809</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337116</v>
+        <v>771.6978860337117</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5215,19 +5215,19 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
         <v>2299.337630107746</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813348</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588248</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105847</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
         <v>1696.750338179563</v>
@@ -5242,7 +5242,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874612</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1768.338774781834</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C14" t="n">
-        <v>1446.825890789496</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="D14" t="n">
-        <v>1136.009825130819</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="E14" t="n">
-        <v>797.6712054806479</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F14" t="n">
-        <v>434.1349336391136</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T14" t="n">
-        <v>3228.518227706518</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U14" t="n">
-        <v>3022.437383928428</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V14" t="n">
-        <v>2738.82412953293</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W14" t="n">
-        <v>2433.505107210889</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X14" t="n">
-        <v>2107.488981897883</v>
+        <v>1983.207425607998</v>
       </c>
       <c r="Y14" t="n">
-        <v>2107.488981897883</v>
+        <v>1640.51772658026</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L15" t="n">
         <v>765.151745215813</v>
@@ -5379,28 +5379,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="16">
@@ -5419,28 +5419,28 @@
         <v>535.3126933611986</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268789</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998338</v>
       </c>
       <c r="H16" t="n">
         <v>116.3881606657647</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315259</v>
+        <v>158.1401341315254</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328089</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337117</v>
+        <v>771.6978860337111</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5455,13 +5455,13 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T16" t="n">
         <v>1938.403572105846</v>
@@ -5489,55 +5489,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1889.690865111402</v>
+        <v>1889.690865111401</v>
       </c>
       <c r="C17" t="n">
-        <v>1589.641627304663</v>
+        <v>1589.641627304662</v>
       </c>
       <c r="D17" t="n">
-        <v>1300.289207831584</v>
+        <v>1300.289207831583</v>
       </c>
       <c r="E17" t="n">
-        <v>983.4142343670119</v>
+        <v>983.4142343670109</v>
       </c>
       <c r="F17" t="n">
-        <v>641.3416087110763</v>
+        <v>641.3416087110753</v>
       </c>
       <c r="G17" t="n">
         <v>295.1824376897442</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
         <v>3284.228432269937</v>
@@ -5549,16 +5549,16 @@
         <v>2962.54676619534</v>
       </c>
       <c r="V17" t="n">
-        <v>2833.155958011399</v>
+        <v>2700.397157985441</v>
       </c>
       <c r="W17" t="n">
-        <v>2833.155958011399</v>
+        <v>2416.541781848999</v>
       </c>
       <c r="X17" t="n">
-        <v>2528.603478883992</v>
+        <v>2111.989302721591</v>
       </c>
       <c r="Y17" t="n">
-        <v>2207.377426041852</v>
+        <v>2111.989302721591</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5598,13 +5598,13 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>609.2207265061031</v>
+        <v>609.2207265061032</v>
       </c>
       <c r="C19" t="n">
         <v>509.1978227118683</v>
@@ -5668,7 +5668,7 @@
         <v>94.92451448016602</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5680,10 +5680,10 @@
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>1004.963518925713</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.371895631578</v>
       </c>
       <c r="O19" t="n">
         <v>1645.701494551991</v>
@@ -5713,10 +5713,10 @@
         <v>1032.911483976874</v>
       </c>
       <c r="X19" t="n">
-        <v>873.8352122125289</v>
+        <v>873.835212212529</v>
       </c>
       <c r="Y19" t="n">
-        <v>721.9559122026708</v>
+        <v>721.9559122026709</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1889.6908651114</v>
+        <v>1473.076688949002</v>
       </c>
       <c r="C20" t="n">
-        <v>1589.641627304661</v>
+        <v>1173.027451142262</v>
       </c>
       <c r="D20" t="n">
-        <v>1300.289207831582</v>
+        <v>883.6750316691837</v>
       </c>
       <c r="E20" t="n">
-        <v>983.4142343670102</v>
+        <v>641.3416087110757</v>
       </c>
       <c r="F20" t="n">
-        <v>641.3416087110746</v>
+        <v>641.3416087110757</v>
       </c>
       <c r="G20" t="n">
         <v>295.1824376897442</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912089</v>
@@ -5762,40 +5762,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3284.228432269938</v>
+        <v>3284.228432269937</v>
       </c>
       <c r="T20" t="n">
         <v>3147.163963787832</v>
       </c>
       <c r="U20" t="n">
-        <v>3061.474381427289</v>
+        <v>2962.54676619534</v>
       </c>
       <c r="V20" t="n">
-        <v>2799.32477321739</v>
+        <v>2700.397157985441</v>
       </c>
       <c r="W20" t="n">
-        <v>2515.469397080948</v>
+        <v>2416.541781849</v>
       </c>
       <c r="X20" t="n">
-        <v>2210.91691795354</v>
+        <v>2111.989302721592</v>
       </c>
       <c r="Y20" t="n">
-        <v>1889.6908651114</v>
+        <v>1790.763249879452</v>
       </c>
     </row>
     <row r="21">
@@ -5826,16 +5826,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>609.2207265061031</v>
+        <v>609.2207265061032</v>
       </c>
       <c r="C22" t="n">
         <v>509.1978227118683</v>
@@ -5905,7 +5905,7 @@
         <v>94.92451448016602</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5920,7 +5920,7 @@
         <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.371895631578</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
         <v>1645.701494551991</v>
@@ -5950,10 +5950,10 @@
         <v>1032.911483976874</v>
       </c>
       <c r="X22" t="n">
-        <v>873.8352122125289</v>
+        <v>873.835212212529</v>
       </c>
       <c r="Y22" t="n">
-        <v>721.9559122026708</v>
+        <v>721.9559122026709</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1898.193195237164</v>
+        <v>1898.193195237166</v>
       </c>
       <c r="C23" t="n">
-        <v>1598.143957430424</v>
+        <v>1598.143957430426</v>
       </c>
       <c r="D23" t="n">
-        <v>1308.791537957346</v>
+        <v>1308.791537957348</v>
       </c>
       <c r="E23" t="n">
-        <v>991.9165644927734</v>
+        <v>991.9165644927755</v>
       </c>
       <c r="F23" t="n">
-        <v>649.8439388368379</v>
+        <v>649.8439388368402</v>
       </c>
       <c r="G23" t="n">
-        <v>303.6847678155074</v>
+        <v>303.6847678155075</v>
       </c>
       <c r="H23" t="n">
-        <v>75.01444655794666</v>
+        <v>75.01444655794668</v>
       </c>
       <c r="I23" t="n">
-        <v>75.01444655794666</v>
+        <v>75.01444655794668</v>
       </c>
       <c r="J23" t="n">
-        <v>263.8935775169721</v>
+        <v>361.9270325896042</v>
       </c>
       <c r="K23" t="n">
-        <v>597.7129512068186</v>
+        <v>695.7464062794506</v>
       </c>
       <c r="L23" t="n">
-        <v>1048.747164455227</v>
+        <v>1146.780619527859</v>
       </c>
       <c r="M23" t="n">
-        <v>1617.368286193743</v>
+        <v>1680.312524199784</v>
       </c>
       <c r="N23" t="n">
-        <v>2545.672062348333</v>
+        <v>2227.091341258566</v>
       </c>
       <c r="O23" t="n">
-        <v>3048.64453322767</v>
+        <v>2730.063812137903</v>
       </c>
       <c r="P23" t="n">
-        <v>3443.418899584848</v>
+        <v>3443.418899584849</v>
       </c>
       <c r="Q23" t="n">
-        <v>3691.70526134053</v>
+        <v>3691.705261340532</v>
       </c>
       <c r="R23" t="n">
-        <v>3750.722327897333</v>
+        <v>3750.722327897334</v>
       </c>
       <c r="S23" t="n">
-        <v>3709.344938558099</v>
+        <v>3709.344938558102</v>
       </c>
       <c r="T23" t="n">
-        <v>3572.280470075993</v>
+        <v>3572.280470075996</v>
       </c>
       <c r="U23" t="n">
-        <v>3387.663272483502</v>
+        <v>3387.663272483504</v>
       </c>
       <c r="V23" t="n">
-        <v>3125.513664273603</v>
+        <v>3125.513664273605</v>
       </c>
       <c r="W23" t="n">
-        <v>2841.658288137161</v>
+        <v>2841.658288137163</v>
       </c>
       <c r="X23" t="n">
-        <v>2537.105809009753</v>
+        <v>2537.105809009755</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.879756167613</v>
+        <v>2215.879756167616</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>950.0461846068719</v>
+        <v>950.0461846068717</v>
       </c>
       <c r="C24" t="n">
-        <v>775.5931553257449</v>
+        <v>775.5931553257448</v>
       </c>
       <c r="D24" t="n">
-        <v>626.6587456644936</v>
+        <v>626.6587456644935</v>
       </c>
       <c r="E24" t="n">
-        <v>467.4212906590382</v>
+        <v>467.421290659038</v>
       </c>
       <c r="F24" t="n">
-        <v>320.8867326859231</v>
+        <v>320.886732685923</v>
       </c>
       <c r="G24" t="n">
-        <v>184.5236325185412</v>
+        <v>184.5236325185411</v>
       </c>
       <c r="H24" t="n">
-        <v>94.0217381564087</v>
+        <v>94.02173815640862</v>
       </c>
       <c r="I24" t="n">
-        <v>75.01444655794666</v>
+        <v>75.01444655794668</v>
       </c>
       <c r="J24" t="n">
         <v>168.691716048564</v>
@@ -6072,7 +6072,7 @@
         <v>406.9559150289111</v>
       </c>
       <c r="L24" t="n">
-        <v>773.6540753415765</v>
+        <v>773.6540753415766</v>
       </c>
       <c r="M24" t="n">
         <v>1220.930400563892</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>617.7230566318663</v>
+        <v>617.7230566318667</v>
       </c>
       <c r="C25" t="n">
-        <v>517.7001528376314</v>
+        <v>517.7001528376318</v>
       </c>
       <c r="D25" t="n">
-        <v>436.4967925589678</v>
+        <v>436.4967925589681</v>
       </c>
       <c r="E25" t="n">
-        <v>357.4969781102467</v>
+        <v>357.496978110247</v>
       </c>
       <c r="F25" t="n">
-        <v>279.5203097460084</v>
+        <v>279.5203097460086</v>
       </c>
       <c r="G25" t="n">
-        <v>180.7307522543994</v>
+        <v>180.7307522543995</v>
       </c>
       <c r="H25" t="n">
         <v>103.4268446059293</v>
       </c>
       <c r="I25" t="n">
-        <v>75.01444655794666</v>
+        <v>75.01444655794668</v>
       </c>
       <c r="J25" t="n">
-        <v>120.1370790048822</v>
+        <v>120.1370790048823</v>
       </c>
       <c r="K25" t="n">
         <v>324.1242619537586</v>
@@ -6157,13 +6157,13 @@
         <v>984.8411060018038</v>
       </c>
       <c r="N25" t="n">
-        <v>1326.249482707668</v>
+        <v>1354.874225757342</v>
       </c>
       <c r="O25" t="n">
-        <v>1654.203824677754</v>
+        <v>1654.203824677755</v>
       </c>
       <c r="P25" t="n">
-        <v>1886.811325111414</v>
+        <v>1886.811325111415</v>
       </c>
       <c r="Q25" t="n">
         <v>1964.421621263929</v>
@@ -6172,25 +6172,25 @@
         <v>1943.504443155129</v>
       </c>
       <c r="S25" t="n">
-        <v>1820.731838115627</v>
+        <v>1820.731838115628</v>
       </c>
       <c r="T25" t="n">
-        <v>1667.878501818825</v>
+        <v>1667.878501818826</v>
       </c>
       <c r="U25" t="n">
         <v>1447.688914078141</v>
       </c>
       <c r="V25" t="n">
-        <v>1261.917705005926</v>
+        <v>1261.917705005927</v>
       </c>
       <c r="W25" t="n">
-        <v>1041.413814102637</v>
+        <v>1041.413814102638</v>
       </c>
       <c r="X25" t="n">
-        <v>882.337542338292</v>
+        <v>882.3375423382925</v>
       </c>
       <c r="Y25" t="n">
-        <v>730.4582423284339</v>
+        <v>730.4582423284344</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>2095.324921473371</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N26" t="n">
-        <v>2642.103738532153</v>
+        <v>2580.208754682581</v>
       </c>
       <c r="O26" t="n">
-        <v>3145.07620941149</v>
+        <v>3083.181225561918</v>
       </c>
       <c r="P26" t="n">
-        <v>3539.850575768668</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277657</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>100.1542084951513</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257034</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913836</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415464</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643386</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
@@ -6388,7 +6388,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6406,10 +6406,10 @@
         <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
         <v>1953.038372570352</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.299882151966</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6440,25 +6440,25 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467792</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.28088433985</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557146</v>
@@ -6470,43 +6470,43 @@
         <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>2030.265665799118</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N29" t="n">
-        <v>2577.044482857901</v>
+        <v>2642.103738532152</v>
       </c>
       <c r="O29" t="n">
-        <v>3080.016953737238</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094416</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603404</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913837</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415466</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643389</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302699</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6637,7 +6637,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467802</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557146</v>
@@ -6704,46 +6704,46 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1339.011402386888</v>
+        <v>1119.741581677075</v>
       </c>
       <c r="M32" t="n">
-        <v>1872.543307058812</v>
+        <v>1653.273486349</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285459</v>
+        <v>2200.052303407782</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164796</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277657</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6853,19 +6853,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6877,16 +6877,16 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6914,73 +6914,73 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F35" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912101</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T35" t="n">
         <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228008</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>642.2355359389143</v>
+        <v>402.2593958170929</v>
       </c>
       <c r="C37" t="n">
-        <v>571.9707875848508</v>
+        <v>331.9946474630293</v>
       </c>
       <c r="D37" t="n">
-        <v>421.854148172515</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E37" t="n">
-        <v>372.6124891639653</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F37" t="n">
-        <v>324.3939762398983</v>
+        <v>183.0892706919201</v>
       </c>
       <c r="G37" t="n">
-        <v>255.3625741884607</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489163</v>
+        <v>1744.44964124669</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332019</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V37" t="n">
-        <v>1266.068997126132</v>
+        <v>1077.567105309816</v>
       </c>
       <c r="W37" t="n">
-        <v>976.6518270891713</v>
+        <v>788.1499352728556</v>
       </c>
       <c r="X37" t="n">
-        <v>847.3337107649974</v>
+        <v>658.8318189486815</v>
       </c>
       <c r="Y37" t="n">
-        <v>725.2125661953106</v>
+        <v>536.7106743789948</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D38" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464976</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307333</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
@@ -7172,52 +7172,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
         <v>589.2106210810571</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T38" t="n">
         <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X38" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D39" t="n">
         <v>618.1564155387305</v>
@@ -7239,46 +7239,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T39" t="n">
         <v>2242.828302297192</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>749.7479478441287</v>
+        <v>500.930830390936</v>
       </c>
       <c r="C40" t="n">
-        <v>679.4831994900651</v>
+        <v>430.6660820368725</v>
       </c>
       <c r="D40" t="n">
-        <v>628.0379946515727</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E40" t="n">
-        <v>578.796335643023</v>
+        <v>231.307783615987</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218343</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1744.449641246691</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1621.35446039006</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U40" t="n">
-        <v>1430.923028089547</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V40" t="n">
-        <v>1274.909974457503</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>1084.164238994386</v>
+        <v>976.6518270891712</v>
       </c>
       <c r="X40" t="n">
-        <v>954.8461226702118</v>
+        <v>748.6622761911539</v>
       </c>
       <c r="Y40" t="n">
-        <v>832.724978100525</v>
+        <v>626.5411316214671</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1867.05785304522</v>
+        <v>1503.254038370578</v>
       </c>
       <c r="C41" t="n">
-        <v>1570.780783916177</v>
+        <v>1206.976969241535</v>
       </c>
       <c r="D41" t="n">
-        <v>1285.200533120796</v>
+        <v>921.3967184461528</v>
       </c>
       <c r="E41" t="n">
-        <v>972.0977283339207</v>
+        <v>608.2939136592775</v>
       </c>
       <c r="F41" t="n">
-        <v>633.7972713556821</v>
+        <v>269.993456681039</v>
       </c>
       <c r="G41" t="n">
-        <v>291.4102690120475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218343</v>
@@ -7409,28 +7409,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7439,22 +7439,22 @@
         <v>3288.000600947636</v>
       </c>
       <c r="T41" t="n">
-        <v>3288.000600947636</v>
+        <v>3154.708301143226</v>
       </c>
       <c r="U41" t="n">
-        <v>3107.155572032841</v>
+        <v>2973.863272228432</v>
       </c>
       <c r="V41" t="n">
-        <v>3079.289647370873</v>
+        <v>2715.48583269623</v>
       </c>
       <c r="W41" t="n">
-        <v>2799.206439912128</v>
+        <v>2435.402625237485</v>
       </c>
       <c r="X41" t="n">
-        <v>2498.426129462417</v>
+        <v>2134.622314787774</v>
       </c>
       <c r="Y41" t="n">
-        <v>2180.972245297973</v>
+        <v>1817.168430623331</v>
       </c>
     </row>
     <row r="42">
@@ -7491,10 +7491,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.8155457622262</v>
+        <v>582.8155457622261</v>
       </c>
       <c r="C43" t="n">
-        <v>486.564810645688</v>
+        <v>486.5648106456879</v>
       </c>
       <c r="D43" t="n">
         <v>409.133619044721</v>
@@ -7561,7 +7561,7 @@
         <v>164.6840847732428</v>
       </c>
       <c r="H43" t="n">
-        <v>91.15234580246933</v>
+        <v>91.15234580246931</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218343</v>
@@ -7609,10 +7609,10 @@
         <v>995.1897971999069</v>
       </c>
       <c r="X43" t="n">
-        <v>839.8856941132584</v>
+        <v>839.8856941132583</v>
       </c>
       <c r="Y43" t="n">
-        <v>691.7785627810971</v>
+        <v>691.778562781097</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1636.546338174986</v>
+        <v>1503.254038370576</v>
       </c>
       <c r="C44" t="n">
-        <v>1340.269269045943</v>
+        <v>1206.976969241533</v>
       </c>
       <c r="D44" t="n">
-        <v>1285.200533120796</v>
+        <v>921.3967184461515</v>
       </c>
       <c r="E44" t="n">
-        <v>972.0977283339208</v>
+        <v>633.7972713556824</v>
       </c>
       <c r="F44" t="n">
-        <v>633.797271355682</v>
+        <v>633.7972713556824</v>
       </c>
       <c r="G44" t="n">
-        <v>291.4102690120475</v>
+        <v>291.4102690120476</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218343</v>
@@ -7673,25 +7673,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3288.000600947636</v>
+        <v>3288.000600947635</v>
       </c>
       <c r="T44" t="n">
-        <v>3288.000600947636</v>
+        <v>3154.708301143226</v>
       </c>
       <c r="U44" t="n">
-        <v>3107.155572032841</v>
+        <v>2973.863272228431</v>
       </c>
       <c r="V44" t="n">
-        <v>2848.778132500639</v>
+        <v>2715.485832696229</v>
       </c>
       <c r="W44" t="n">
-        <v>2568.694925041893</v>
+        <v>2435.402625237483</v>
       </c>
       <c r="X44" t="n">
-        <v>2267.914614592182</v>
+        <v>2134.622314787772</v>
       </c>
       <c r="Y44" t="n">
-        <v>1950.460730427739</v>
+        <v>1817.168430623329</v>
       </c>
     </row>
     <row r="45">
@@ -7728,10 +7728,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>582.8155457622262</v>
+        <v>582.8155457622263</v>
       </c>
       <c r="C46" t="n">
-        <v>486.564810645688</v>
+        <v>486.5648106456882</v>
       </c>
       <c r="D46" t="n">
-        <v>409.133619044721</v>
+        <v>409.1336190447212</v>
       </c>
       <c r="E46" t="n">
-        <v>333.9059732736966</v>
+        <v>333.9059732736968</v>
       </c>
       <c r="F46" t="n">
         <v>259.7014735871551</v>
@@ -7798,7 +7798,7 @@
         <v>164.6840847732428</v>
       </c>
       <c r="H46" t="n">
-        <v>91.15234580246933</v>
+        <v>91.15234580246936</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218343</v>
@@ -7843,13 +7843,13 @@
         <v>1243.651475218974</v>
       </c>
       <c r="W46" t="n">
-        <v>995.1897971999069</v>
+        <v>995.1897971999072</v>
       </c>
       <c r="X46" t="n">
-        <v>839.8856941132584</v>
+        <v>839.8856941132585</v>
       </c>
       <c r="Y46" t="n">
-        <v>691.7785627810971</v>
+        <v>691.7785627810972</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>161.2833466331817</v>
+        <v>161.2833466331804</v>
       </c>
       <c r="K8" t="n">
-        <v>190.4708996772623</v>
+        <v>190.4708996772603</v>
       </c>
       <c r="L8" t="n">
-        <v>199.0214867114948</v>
+        <v>199.0214867114924</v>
       </c>
       <c r="M8" t="n">
-        <v>189.4604205499982</v>
+        <v>189.4604205499955</v>
       </c>
       <c r="N8" t="n">
-        <v>187.865675725397</v>
+        <v>187.8656757253942</v>
       </c>
       <c r="O8" t="n">
-        <v>190.8661912001316</v>
+        <v>190.866191200129</v>
       </c>
       <c r="P8" t="n">
-        <v>197.749374161039</v>
+        <v>197.7493741610368</v>
       </c>
       <c r="Q8" t="n">
-        <v>197.160884516819</v>
+        <v>197.1608845168174</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>115.0671825723707</v>
+        <v>115.0671825723699</v>
       </c>
       <c r="K9" t="n">
-        <v>117.723875248455</v>
+        <v>117.7238752484537</v>
       </c>
       <c r="L9" t="n">
-        <v>111.5038326888327</v>
+        <v>111.5038326888309</v>
       </c>
       <c r="M9" t="n">
-        <v>110.5673213586516</v>
+        <v>110.5673213586495</v>
       </c>
       <c r="N9" t="n">
-        <v>98.93952256809908</v>
+        <v>98.93952256809692</v>
       </c>
       <c r="O9" t="n">
-        <v>112.9545713195534</v>
+        <v>112.9545713195515</v>
       </c>
       <c r="P9" t="n">
-        <v>110.1843514755409</v>
+        <v>110.1843514755393</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.0787517137829</v>
+        <v>124.0787517137819</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>119.3562654747622</v>
+        <v>119.3562654747611</v>
       </c>
       <c r="M10" t="n">
-        <v>122.5532519960294</v>
+        <v>122.5532519960283</v>
       </c>
       <c r="N10" t="n">
-        <v>111.7023147290578</v>
+        <v>111.7023147290567</v>
       </c>
       <c r="O10" t="n">
-        <v>123.6934388297876</v>
+        <v>123.6934388297866</v>
       </c>
       <c r="P10" t="n">
-        <v>125.0956219182097</v>
+        <v>125.0956219182089</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>99.02369199255764</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,16 +9644,16 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>35.44365360261747</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>385.3787465614217</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.06581410364015e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>342.9371040273974</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>62.52018570663739</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>446.3172993264889</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>62.52018570663779</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,25 +10352,25 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>287.0017854473918</v>
+        <v>65.51711806374243</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.06989098845861</v>
+        <v>15.06989098845859</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,16 +23258,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>94.20181522796163</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>31.73550625764071</v>
       </c>
     </row>
     <row r="12">
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-8.668621376273222e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>83.92851037866873</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>60.82611555740118</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>94.43424208705771</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23789,16 +23789,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>131.4312120256981</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>281.0168223750777</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>318.0137923137183</v>
       </c>
     </row>
     <row r="18">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>314.5096953211453</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23975,10 +23975,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>73.79613500139976</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>338.6518993993761</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>97.93833907962946</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>8.881784197001252e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -25640,10 +25640,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>137.5166054738314</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>222.6491710540654</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25679,13 +25679,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>131.9593768063651</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>228.2063997215334</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25868,13 +25868,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>228.2063997215331</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>25.2483241194428</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>334.9174524084564</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>131.9593768063651</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>846052.1152402868</v>
+        <v>846052.1152402859</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>740684.0236867672</v>
+        <v>740684.0236867671</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>786963.8674098986</v>
+        <v>786963.8674098987</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>798440.1971794793</v>
+        <v>798440.1971794792</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>798440.1971794793</v>
+        <v>798440.1971794792</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>771052.5724596962</v>
+        <v>771052.5724596963</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>744533.5663339471</v>
+        <v>744533.5663339472</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26314,46 @@
         <v>675902.9794415568</v>
       </c>
       <c r="C2" t="n">
-        <v>675902.9794415571</v>
+        <v>675902.979441557</v>
       </c>
       <c r="D2" t="n">
-        <v>675918.2704729637</v>
+        <v>675918.2704729633</v>
       </c>
       <c r="E2" t="n">
-        <v>630738.0831591204</v>
+        <v>630738.0831591209</v>
       </c>
       <c r="F2" t="n">
-        <v>630738.0831591204</v>
+        <v>630738.0831591206</v>
       </c>
       <c r="G2" t="n">
+        <v>650273.9977189356</v>
+      </c>
+      <c r="H2" t="n">
         <v>650273.9977189353</v>
       </c>
-      <c r="H2" t="n">
-        <v>650273.9977189354</v>
-      </c>
       <c r="I2" t="n">
-        <v>677359.4601380342</v>
+        <v>677359.4601380345</v>
       </c>
       <c r="J2" t="n">
         <v>677359.4601380338</v>
       </c>
       <c r="K2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="L2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="M2" t="n">
+        <v>677359.460138034</v>
+      </c>
+      <c r="N2" t="n">
         <v>677359.4601380337</v>
       </c>
-      <c r="N2" t="n">
-        <v>677359.4601380335</v>
-      </c>
       <c r="O2" t="n">
-        <v>653707.3735934475</v>
+        <v>653707.3735934478</v>
       </c>
       <c r="P2" t="n">
-        <v>653707.373593447</v>
+        <v>653707.3735934469</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49603.99004264794</v>
+        <v>49603.99004265122</v>
       </c>
       <c r="E3" t="n">
-        <v>1114814.601112469</v>
+        <v>1114814.601112465</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
         <v>16999.20777899435</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28261.8516171636</v>
+        <v>28261.85161716369</v>
       </c>
       <c r="J3" t="n">
-        <v>40637.45238225421</v>
+        <v>40637.45238225405</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>16999.20777899418</v>
+        <v>16999.20777899414</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927242</v>
@@ -26421,43 +26421,43 @@
         <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
-        <v>429644.5458935883</v>
+        <v>429644.5458935872</v>
       </c>
       <c r="E4" t="n">
+        <v>59435.44534362316</v>
+      </c>
+      <c r="F4" t="n">
         <v>59435.44534362319</v>
       </c>
-      <c r="F4" t="n">
-        <v>59435.44534362321</v>
-      </c>
       <c r="G4" t="n">
-        <v>72844.10175942453</v>
+        <v>72844.10175942455</v>
       </c>
       <c r="H4" t="n">
         <v>72844.10175942452</v>
       </c>
       <c r="I4" t="n">
-        <v>88805.64290420646</v>
+        <v>88805.64290420647</v>
       </c>
       <c r="J4" t="n">
-        <v>86909.55729936334</v>
+        <v>86909.55729936331</v>
       </c>
       <c r="K4" t="n">
-        <v>86909.55729936334</v>
+        <v>86909.55729936337</v>
       </c>
       <c r="L4" t="n">
-        <v>86909.55729936334</v>
+        <v>86909.55729936331</v>
       </c>
       <c r="M4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="N4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="O4" t="n">
         <v>75210.52190087909</v>
       </c>
       <c r="P4" t="n">
-        <v>75210.52190087909</v>
+        <v>75210.52190087906</v>
       </c>
     </row>
     <row r="5">
@@ -26473,37 +26473,37 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34890.26850253467</v>
+        <v>34890.26850253475</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178173</v>
       </c>
       <c r="F5" t="n">
         <v>78255.49332178175</v>
       </c>
       <c r="G5" t="n">
-        <v>80041.87632024709</v>
+        <v>80041.87632024707</v>
       </c>
       <c r="H5" t="n">
-        <v>80041.87632024709</v>
+        <v>80041.87632024707</v>
       </c>
       <c r="I5" t="n">
-        <v>86503.64721582715</v>
+        <v>86503.64721582716</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624987</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="O5" t="n">
         <v>80355.82754432672</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>195250.759169164</v>
+        <v>195246.3455912959</v>
       </c>
       <c r="C6" t="n">
-        <v>195250.7591691642</v>
+        <v>195246.345591296</v>
       </c>
       <c r="D6" t="n">
-        <v>161779.4660341928</v>
+        <v>161775.0987927809</v>
       </c>
       <c r="E6" t="n">
-        <v>-621767.4566187531</v>
+        <v>-621908.7335186856</v>
       </c>
       <c r="F6" t="n">
-        <v>493047.1444937155</v>
+        <v>492905.8675937796</v>
       </c>
       <c r="G6" t="n">
-        <v>480388.8118602693</v>
+        <v>480306.7347014239</v>
       </c>
       <c r="H6" t="n">
-        <v>497388.0196392637</v>
+        <v>497305.9424804179</v>
       </c>
       <c r="I6" t="n">
-        <v>473788.318400837</v>
+        <v>473788.3184008372</v>
       </c>
       <c r="J6" t="n">
-        <v>460434.5087816102</v>
+        <v>460434.5087816103</v>
       </c>
       <c r="K6" t="n">
-        <v>501071.9611638642</v>
+        <v>501071.9611638645</v>
       </c>
       <c r="L6" t="n">
-        <v>484072.75338487</v>
+        <v>484072.7533848705</v>
       </c>
       <c r="M6" t="n">
-        <v>301098.8078858902</v>
+        <v>301098.8078858905</v>
       </c>
       <c r="N6" t="n">
-        <v>503266.9078786143</v>
+        <v>503266.9078786145</v>
       </c>
       <c r="O6" t="n">
-        <v>498141.0241482417</v>
+        <v>498069.351158713</v>
       </c>
       <c r="P6" t="n">
-        <v>498141.0241482412</v>
+        <v>498069.3511587121</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G2" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="H2" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="I2" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="O2" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="P2" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076458</v>
+        <v>57.92057351076842</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>937.6805819743332</v>
+        <v>937.6805819743336</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208615</v>
@@ -26820,10 +26820,10 @@
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
         <v>21.24900972374272</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.72612689484981</v>
+        <v>25.72612689484984</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374272</v>
+        <v>21.24900972374268</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951241</v>
+        <v>50.70958360951233</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076458</v>
+        <v>57.92057351076842</v>
       </c>
       <c r="E3" t="n">
-        <v>1031.856127082533</v>
+        <v>1031.85612708253</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.2791265720406</v>
+        <v>106.279126572041</v>
       </c>
       <c r="J4" t="n">
-        <v>76.65587923428154</v>
+        <v>76.65587923428086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959707</v>
+        <v>648.466449595971</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
         <v>21.24900972374272</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.72612689484981</v>
+        <v>25.72612689484984</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.090162624442</v>
+        <v>337.0901626244419</v>
       </c>
       <c r="I8" t="n">
-        <v>201.4990738507124</v>
+        <v>201.4990738507119</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>135.2425723098107</v>
+        <v>135.2425723098098</v>
       </c>
       <c r="S8" t="n">
-        <v>203.714079359606</v>
+        <v>203.7140793596056</v>
       </c>
       <c r="T8" t="n">
         <v>222.0765638936052</v>
@@ -27947,10 +27947,10 @@
         <v>137.218933288112</v>
       </c>
       <c r="H9" t="n">
-        <v>111.0322262848861</v>
+        <v>111.032226284886</v>
       </c>
       <c r="I9" t="n">
-        <v>85.10723188858958</v>
+        <v>85.1072318885893</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>92.42270548643197</v>
+        <v>92.42270548643145</v>
       </c>
       <c r="S9" t="n">
-        <v>169.3690802659313</v>
+        <v>169.3690802659312</v>
       </c>
       <c r="T9" t="n">
-        <v>199.6625682508934</v>
+        <v>199.6625682508933</v>
       </c>
       <c r="U9" t="n">
         <v>225.9331857734025</v>
@@ -28026,16 +28026,16 @@
         <v>167.8865324226197</v>
       </c>
       <c r="H10" t="n">
-        <v>161.2985442960703</v>
+        <v>161.2985442960702</v>
       </c>
       <c r="I10" t="n">
-        <v>152.3094707112975</v>
+        <v>152.3094707112973</v>
       </c>
       <c r="J10" t="n">
-        <v>85.97478175284957</v>
+        <v>85.97478175284907</v>
       </c>
       <c r="K10" t="n">
-        <v>10.13465691657841</v>
+        <v>10.1346569165776</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.41603665156893</v>
+        <v>77.41603665156835</v>
       </c>
       <c r="R10" t="n">
-        <v>172.5970773348049</v>
+        <v>172.5970773348046</v>
       </c>
       <c r="S10" t="n">
-        <v>222.1963728005766</v>
+        <v>222.1963728005765</v>
       </c>
       <c r="T10" t="n">
-        <v>227.4993161569691</v>
+        <v>227.499316156969</v>
       </c>
       <c r="U10" t="n">
         <v>286.3133322508997</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292598</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="C17" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="D17" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="E17" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="F17" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="G17" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="H17" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="T17" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="U17" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="V17" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="W17" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="X17" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="C19" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="D19" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="E19" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="F19" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="G19" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="H19" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="I19" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28752,13 +28752,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>28.91388186835621</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>28.91388186835621</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="S19" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="T19" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="U19" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="V19" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="W19" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="X19" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="C20" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="D20" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="E20" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="F20" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="G20" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="H20" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="T20" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="U20" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="V20" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="W20" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="X20" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="C22" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="D22" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="E22" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="F22" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="G22" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="H22" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="I22" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28992,10 +28992,10 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>28.9138818683561</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>28.91388186835621</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="S22" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="T22" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="U22" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="V22" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="W22" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="X22" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.22414634233532</v>
+        <v>68.2241463423353</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="C23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="D23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="E23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="F23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="G23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="H23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="T23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="U23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="V23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="W23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="X23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="C25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="D25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="E25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="F25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="G25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="H25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="I25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29229,10 +29229,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>28.91388186835678</v>
       </c>
       <c r="O25" t="n">
-        <v>28.91388186835621</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="S25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="T25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="U25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="V25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="W25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="X25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233527</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29934,7 +29934,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859227</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
         <v>46.97513661859255</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810496</v>
+        <v>46.72521440565447</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H37" t="n">
-        <v>54.14548214544438</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,16 +30189,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -30207,10 +30207,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810489</v>
+        <v>55.47778196371152</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F40" t="n">
-        <v>45.39291458738718</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="C41" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="D41" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="E41" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="F41" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="G41" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="H41" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="T41" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="U41" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="V41" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="W41" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="X41" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="Y41" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="C43" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="D43" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="E43" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="F43" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="G43" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="H43" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="I43" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>40.54593709771503</v>
       </c>
       <c r="S43" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="T43" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="U43" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="V43" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="W43" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="X43" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325508</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="C44" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="D44" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="E44" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="F44" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="G44" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="H44" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="T44" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="U44" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="V44" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="W44" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="X44" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="Y44" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="C46" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="D46" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="E46" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="F46" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="G46" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="H46" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="I46" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="S46" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="T46" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="U46" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="V46" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="W46" t="n">
-        <v>40.54593709771493</v>
+        <v>40.54593709771515</v>
       </c>
       <c r="X46" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.95859333325507</v>
+        <v>71.95859333325504</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2328465266764403</v>
+        <v>0.2328465266764558</v>
       </c>
       <c r="H8" t="n">
-        <v>2.384639491325095</v>
+        <v>2.384639491325253</v>
       </c>
       <c r="I8" t="n">
-        <v>8.976815719693475</v>
+        <v>8.97681571969407</v>
       </c>
       <c r="J8" t="n">
-        <v>19.76255789350455</v>
+        <v>19.76255789350586</v>
       </c>
       <c r="K8" t="n">
-        <v>29.61895136771827</v>
+        <v>29.61895136772024</v>
       </c>
       <c r="L8" t="n">
-        <v>36.74492825849239</v>
+        <v>36.74492825849483</v>
       </c>
       <c r="M8" t="n">
-        <v>40.88581267727454</v>
+        <v>40.88581267727724</v>
       </c>
       <c r="N8" t="n">
-        <v>41.54738787119398</v>
+        <v>41.54738787119673</v>
       </c>
       <c r="O8" t="n">
-        <v>39.23202022155512</v>
+        <v>39.23202022155772</v>
       </c>
       <c r="P8" t="n">
-        <v>33.48362159423049</v>
+        <v>33.48362159423272</v>
       </c>
       <c r="Q8" t="n">
-        <v>25.14480535763046</v>
+        <v>25.14480535763213</v>
       </c>
       <c r="R8" t="n">
-        <v>14.62654563133896</v>
+        <v>14.62654563133993</v>
       </c>
       <c r="S8" t="n">
-        <v>5.305990226639389</v>
+        <v>5.305990226639741</v>
       </c>
       <c r="T8" t="n">
-        <v>1.019285670526118</v>
+        <v>1.019285670526186</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01862772213411522</v>
+        <v>0.01862772213411646</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1245838750986257</v>
+        <v>0.124583875098634</v>
       </c>
       <c r="H9" t="n">
-        <v>1.203217951610412</v>
+        <v>1.203217951610491</v>
       </c>
       <c r="I9" t="n">
-        <v>4.28940096282549</v>
+        <v>4.289400962825775</v>
       </c>
       <c r="J9" t="n">
-        <v>11.77044409429604</v>
+        <v>11.77044409429682</v>
       </c>
       <c r="K9" t="n">
-        <v>20.11756372590396</v>
+        <v>20.11756372590529</v>
       </c>
       <c r="L9" t="n">
-        <v>27.05054709104152</v>
+        <v>27.05054709104331</v>
       </c>
       <c r="M9" t="n">
-        <v>31.56671256336669</v>
+        <v>31.56671256336879</v>
       </c>
       <c r="N9" t="n">
-        <v>32.40218951523423</v>
+        <v>32.40218951523639</v>
       </c>
       <c r="O9" t="n">
-        <v>29.641673124891</v>
+        <v>29.64167312489297</v>
       </c>
       <c r="P9" t="n">
-        <v>23.79005593878933</v>
+        <v>23.7900559387909</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.90302237223861</v>
+        <v>15.90302237223966</v>
       </c>
       <c r="R9" t="n">
-        <v>7.735128666211167</v>
+        <v>7.73512866621168</v>
       </c>
       <c r="S9" t="n">
-        <v>2.314090837906489</v>
+        <v>2.314090837906642</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5021604439282323</v>
+        <v>0.5021604439282656</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00819630757227801</v>
+        <v>0.008196307572278554</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1044469358390837</v>
+        <v>0.1044469358390906</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9286282113693081</v>
+        <v>0.9286282113693697</v>
       </c>
       <c r="I10" t="n">
-        <v>3.141004215960808</v>
+        <v>3.141004215961016</v>
       </c>
       <c r="J10" t="n">
-        <v>7.384398363823213</v>
+        <v>7.384398363823704</v>
       </c>
       <c r="K10" t="n">
-        <v>12.13483490930444</v>
+        <v>12.13483490930525</v>
       </c>
       <c r="L10" t="n">
-        <v>15.52841080647613</v>
+        <v>15.52841080647716</v>
       </c>
       <c r="M10" t="n">
-        <v>16.37253195157563</v>
+        <v>16.37253195157671</v>
       </c>
       <c r="N10" t="n">
-        <v>15.98322973617542</v>
+        <v>15.98322973617648</v>
       </c>
       <c r="O10" t="n">
-        <v>14.76309962205521</v>
+        <v>14.76309962205619</v>
       </c>
       <c r="P10" t="n">
-        <v>12.63238213093789</v>
+        <v>12.63238213093873</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.746006600125451</v>
+        <v>8.746006600126032</v>
       </c>
       <c r="R10" t="n">
-        <v>4.696314042364615</v>
+        <v>4.696314042364926</v>
       </c>
       <c r="S10" t="n">
-        <v>1.820225236395666</v>
+        <v>1.820225236395787</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4462732713124482</v>
+        <v>0.4462732713124778</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005697105591222751</v>
+        <v>0.00569710559122313</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32567,7 +32567,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
@@ -33278,7 +33278,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36048,13 +36048,13 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>376.54726126184</v>
       </c>
       <c r="N19" t="n">
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>331.267012090996</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
@@ -36130,7 +36130,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129106</v>
       </c>
       <c r="O20" t="n">
         <v>508.0530008882191</v>
@@ -36142,7 +36142,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36215,7 +36215,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36288,10 +36288,10 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>373.7708280358962</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>331.267012090996</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>289.8106929612702</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36364,16 +36364,16 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>574.3647694328442</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>937.6805819743332</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36525,10 +36525,10 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>373.7708280358968</v>
       </c>
       <c r="O25" t="n">
-        <v>331.267012090996</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36601,7 +36601,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>881.8582198576241</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
@@ -36610,7 +36610,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>461.2821719260093</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36759,7 +36759,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36768,7 +36768,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36838,10 +36838,10 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>985.2384151567156</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>614.8220211195493</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
@@ -36853,7 +36853,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37072,25 +37072,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>742.591899839724</v>
+        <v>521.1072324560746</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887904</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120764</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687138</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37622,7 +37622,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38096,7 +38096,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
